--- a/_reference/factor_tables.xlsx
+++ b/_reference/factor_tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12360" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12360" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Terrain effects" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,12 @@
     <sheet name="Air superiority" sheetId="6" r:id="rId6"/>
     <sheet name="Season" sheetId="8" r:id="rId7"/>
     <sheet name="Road factors" sheetId="7" r:id="rId8"/>
+    <sheet name="Advance rates" sheetId="10" r:id="rId9"/>
+    <sheet name="Casualty rates" sheetId="12" r:id="rId10"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId11"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="199">
   <si>
     <t>Terrain</t>
   </si>
@@ -255,6 +260,9 @@
     <t>Quality</t>
   </si>
   <si>
+    <t>Mediocre</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
@@ -307,13 +315,335 @@
   </si>
   <si>
     <t>fall, temperate</t>
+  </si>
+  <si>
+    <t>Standard unmodified advance rates</t>
+  </si>
+  <si>
+    <t>Armoured (km/day)</t>
+  </si>
+  <si>
+    <t>Mechanised (km/day)</t>
+  </si>
+  <si>
+    <t>Infantry (km/day)</t>
+  </si>
+  <si>
+    <t>Armoured</t>
+  </si>
+  <si>
+    <t>Mechanised</t>
+  </si>
+  <si>
+    <t>Infantry</t>
+  </si>
+  <si>
+    <t>P/P ratio</t>
+  </si>
+  <si>
+    <t>Hasty</t>
+  </si>
+  <si>
+    <t>Prepared</t>
+  </si>
+  <si>
+    <t>Fortified</t>
+  </si>
+  <si>
+    <t>Intense resistance  P/P = 1 to 1.1</t>
+  </si>
+  <si>
+    <t>Hasty defense/delay</t>
+  </si>
+  <si>
+    <t>Perpared defense</t>
+  </si>
+  <si>
+    <t>Fortified defense</t>
+  </si>
+  <si>
+    <t>Strong/Intense resistance P/P 1.11-1.25</t>
+  </si>
+  <si>
+    <t>Strong resistance P/P 1.26-1.45</t>
+  </si>
+  <si>
+    <t>Moderate/strong P/P 1.46-1.75</t>
+  </si>
+  <si>
+    <t>Moderate resistance P/P 1.76-2.25</t>
+  </si>
+  <si>
+    <t>Slight/moderate resistance P/P 2.26-3.0</t>
+  </si>
+  <si>
+    <t>Slight resistance P/P 3.01-4.25</t>
+  </si>
+  <si>
+    <t>Negligible/slight resistance P/P 4.26-6</t>
+  </si>
+  <si>
+    <t>Negligible resistance P/P &gt; 6</t>
+  </si>
+  <si>
+    <t>Advance rate must exceed width of river to cross</t>
+  </si>
+  <si>
+    <t>Terrain effects</t>
+  </si>
+  <si>
+    <t>Obstacle, width (m)</t>
+  </si>
+  <si>
+    <t>Rugged, heavily wooded</t>
+  </si>
+  <si>
+    <t>River, fordable</t>
+  </si>
+  <si>
+    <t>Rugged, mixed</t>
+  </si>
+  <si>
+    <t>River, unfordable</t>
+  </si>
+  <si>
+    <t>Rugged, bare</t>
+  </si>
+  <si>
+    <t>Rolling, heavily wooded</t>
+  </si>
+  <si>
+    <t>Minefield, density/km front</t>
+  </si>
+  <si>
+    <t>Rolling, mixed</t>
+  </si>
+  <si>
+    <t>Rolling, bare</t>
+  </si>
+  <si>
+    <t>Flat, heavily wooded</t>
+  </si>
+  <si>
+    <t>Road quality</t>
+  </si>
+  <si>
+    <t>Road density</t>
+  </si>
+  <si>
+    <t>Flat, mixed</t>
+  </si>
+  <si>
+    <t>European std</t>
+  </si>
+  <si>
+    <t>Flat, bare, hard</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Flat, desert</t>
+  </si>
+  <si>
+    <t>Sparse</t>
+  </si>
+  <si>
+    <t>Desert, sandy, dunes</t>
+  </si>
+  <si>
+    <t>Swamp, jungled</t>
+  </si>
+  <si>
+    <t>Swamp, mixed or open</t>
+  </si>
+  <si>
+    <t>Main effort factor</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>Applies only to 1/3 of force division sized (10k) or greater</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>Standard casualty rates %/day</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Strength/size factor</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Mission Factor</t>
+  </si>
+  <si>
+    <t>Normal Combat</t>
+  </si>
+  <si>
+    <t>Main Effort</t>
+  </si>
+  <si>
+    <t>Main effort cannot last more than 48 hours and no more than 1/3 of division size or larger</t>
+  </si>
+  <si>
+    <t>Main effort determined by attacker</t>
+  </si>
+  <si>
+    <t>Holding</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Opposition factor</t>
+  </si>
+  <si>
+    <t>P/P</t>
+  </si>
+  <si>
+    <t>Opposition Factor</t>
+  </si>
+  <si>
+    <t>Day/night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day </t>
+  </si>
+  <si>
+    <t>Night</t>
+  </si>
+  <si>
+    <t>Non-battle casualties</t>
+  </si>
+  <si>
+    <t>Exhaustion rates</t>
+  </si>
+  <si>
+    <t>April - Oct</t>
+  </si>
+  <si>
+    <t>%/day</t>
+  </si>
+  <si>
+    <t>Fresh unit</t>
+  </si>
+  <si>
+    <t>Oct - April</t>
+  </si>
+  <si>
+    <t>New factor at conclusion of engagement</t>
+  </si>
+  <si>
+    <t>Non-temperate</t>
+  </si>
+  <si>
+    <t>normal offensive'/defensive combat</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>reduce .05 per day</t>
+  </si>
+  <si>
+    <t>Armored loss rates</t>
+  </si>
+  <si>
+    <t>Cannot be less than .5</t>
+  </si>
+  <si>
+    <t>5.4 * personnel rates/day</t>
+  </si>
+  <si>
+    <t>Attacker opposed by delay</t>
+  </si>
+  <si>
+    <t>lose .05 per day</t>
+  </si>
+  <si>
+    <t>Mission factor</t>
+  </si>
+  <si>
+    <t>Defender in delay</t>
+  </si>
+  <si>
+    <t>Normal combat</t>
+  </si>
+  <si>
+    <t>No gain or loss</t>
+  </si>
+  <si>
+    <t>Main effort</t>
+  </si>
+  <si>
+    <t>Withdrawing, not seriously engaged</t>
+  </si>
+  <si>
+    <t>Recovery rates</t>
+  </si>
+  <si>
+    <t>Advancing in pursuit, not seriously engaged</t>
+  </si>
+  <si>
+    <t>Attacker</t>
+  </si>
+  <si>
+    <t>50% recoverable</t>
+  </si>
+  <si>
+    <t>1/5 per day</t>
+  </si>
+  <si>
+    <t>Reserve or non-active posture</t>
+  </si>
+  <si>
+    <t>Defender</t>
+  </si>
+  <si>
+    <t>Increases up to 1 at .1/day</t>
+  </si>
+  <si>
+    <t>Artillery loss rates</t>
+  </si>
+  <si>
+    <t>.2* personnel rates for towed</t>
+  </si>
+  <si>
+    <t>.5 * personnel rates for SP weapons</t>
+  </si>
+  <si>
+    <t>Attack/defender</t>
+  </si>
+  <si>
+    <t>1/2 per day</t>
+  </si>
+  <si>
+    <t>Other equipment</t>
+  </si>
+  <si>
+    <t>Same as personnel rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +667,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -346,7 +683,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -354,11 +691,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -383,8 +739,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -398,6 +785,5895 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]AdvanceRates!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hasty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]AdvanceRates!$H$3:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]AdvanceRates!$I$3:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]AdvanceRates!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prepared</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]AdvanceRates!$H$3:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]AdvanceRates!$J$3:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]AdvanceRates!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fortified</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]AdvanceRates!$H$3:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]AdvanceRates!$K$3:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1830421968"/>
+        <c:axId val="1830425232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1830421968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Power Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1830425232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1830425232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1830421968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]AdvanceRates!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hasty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]AdvanceRates!$H$3:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]AdvanceRates!$L$3:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]AdvanceRates!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prepared</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]AdvanceRates!$H$3:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]AdvanceRates!$M$3:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]AdvanceRates!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fortified</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]AdvanceRates!$H$3:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]AdvanceRates!$N$3:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1830422512"/>
+        <c:axId val="1786742144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1830422512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Power Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1786742144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1786742144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1830422512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]AdvanceRates!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hasty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]AdvanceRates!$H$3:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]AdvanceRates!$O$3:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]AdvanceRates!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prepared</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]AdvanceRates!$H$3:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]AdvanceRates!$P$3:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]AdvanceRates!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fortified</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]AdvanceRates!$H$3:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]AdvanceRates!$Q$3:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1834010416"/>
+        <c:axId val="1834007152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1834010416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Power Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1834007152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1834007152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1834010416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10831427805270472"/>
+          <c:y val="9.7960426179604279E-2"/>
+          <c:w val="0.83686632050250687"/>
+          <c:h val="0.63294814175625302"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Casualties!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Opposition Factor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Casualties!$A$24:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Casualties!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1419168032"/>
+        <c:axId val="1822474928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1419168032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1822474928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1822474928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1419168032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Casualties!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strength/size factor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Casualties!$A$7:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Casualties!$B$7:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1822477104"/>
+        <c:axId val="1822472752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1822477104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1822472752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1822472752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1822477104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TLI_WEPS"/>
+      <sheetName val="TLI_VEH"/>
+      <sheetName val="INFO"/>
+      <sheetName val="Formations"/>
+      <sheetName val="OOBS"/>
+      <sheetName val="Casualties"/>
+      <sheetName val="AdvanceRates"/>
+      <sheetName val="btl"/>
+      <sheetName val="lookups"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5">
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Strength/size factor</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>2500</v>
+          </cell>
+          <cell r="B7">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>7500</v>
+          </cell>
+          <cell r="B8">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>15000</v>
+          </cell>
+          <cell r="B9">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>25000</v>
+          </cell>
+          <cell r="B10">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>40000</v>
+          </cell>
+          <cell r="B11">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>75000</v>
+          </cell>
+          <cell r="B12">
+            <v>0.7</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>100000</v>
+          </cell>
+          <cell r="B13">
+            <v>0.6</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>Opposition Factor</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>3</v>
+          </cell>
+          <cell r="B25">
+            <v>0.7</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>2.5</v>
+          </cell>
+          <cell r="B26">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>1.5</v>
+          </cell>
+          <cell r="B27">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>0.83</v>
+          </cell>
+          <cell r="B28">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>0.6</v>
+          </cell>
+          <cell r="B29">
+            <v>1.1000000000000001</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>0.45</v>
+          </cell>
+          <cell r="B30">
+            <v>1.2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>0.35</v>
+          </cell>
+          <cell r="B31">
+            <v>1.3</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>0.25</v>
+          </cell>
+          <cell r="B32">
+            <v>1.4</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>0.2</v>
+          </cell>
+          <cell r="B33">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>0.15</v>
+          </cell>
+          <cell r="B34">
+            <v>1.6</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="2">
+          <cell r="I2" t="str">
+            <v>Hasty</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>Prepared</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>Fortified</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>Hasty</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>Prepared</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>Fortified</v>
+          </cell>
+          <cell r="O2" t="str">
+            <v>Hasty</v>
+          </cell>
+          <cell r="P2" t="str">
+            <v>Prepared</v>
+          </cell>
+          <cell r="Q2" t="str">
+            <v>Fortified</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="H3">
+            <v>1.05</v>
+          </cell>
+          <cell r="I3">
+            <v>4</v>
+          </cell>
+          <cell r="J3">
+            <v>2</v>
+          </cell>
+          <cell r="K3">
+            <v>1</v>
+          </cell>
+          <cell r="L3">
+            <v>4</v>
+          </cell>
+          <cell r="M3">
+            <v>2</v>
+          </cell>
+          <cell r="N3">
+            <v>1</v>
+          </cell>
+          <cell r="O3">
+            <v>4</v>
+          </cell>
+          <cell r="P3">
+            <v>2</v>
+          </cell>
+          <cell r="Q3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="H4">
+            <v>1.175</v>
+          </cell>
+          <cell r="I4">
+            <v>5</v>
+          </cell>
+          <cell r="J4">
+            <v>2.25</v>
+          </cell>
+          <cell r="K4">
+            <v>1.85</v>
+          </cell>
+          <cell r="L4">
+            <v>4.5</v>
+          </cell>
+          <cell r="M4">
+            <v>2.25</v>
+          </cell>
+          <cell r="N4">
+            <v>1.85</v>
+          </cell>
+          <cell r="O4">
+            <v>4.5</v>
+          </cell>
+          <cell r="P4">
+            <v>2.25</v>
+          </cell>
+          <cell r="Q4">
+            <v>1.85</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="H5">
+            <v>1.35</v>
+          </cell>
+          <cell r="I5">
+            <v>6</v>
+          </cell>
+          <cell r="J5">
+            <v>2.5</v>
+          </cell>
+          <cell r="K5">
+            <v>1.5</v>
+          </cell>
+          <cell r="L5">
+            <v>5</v>
+          </cell>
+          <cell r="M5">
+            <v>2.8</v>
+          </cell>
+          <cell r="N5">
+            <v>1.5</v>
+          </cell>
+          <cell r="O5">
+            <v>5</v>
+          </cell>
+          <cell r="P5">
+            <v>2.5</v>
+          </cell>
+          <cell r="Q5">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="H6">
+            <v>1.6</v>
+          </cell>
+          <cell r="I6">
+            <v>9</v>
+          </cell>
+          <cell r="J6">
+            <v>4</v>
+          </cell>
+          <cell r="K6">
+            <v>2</v>
+          </cell>
+          <cell r="L6">
+            <v>7.5</v>
+          </cell>
+          <cell r="M6">
+            <v>3.5</v>
+          </cell>
+          <cell r="N6">
+            <v>2</v>
+          </cell>
+          <cell r="O6">
+            <v>5</v>
+          </cell>
+          <cell r="P6">
+            <v>3</v>
+          </cell>
+          <cell r="Q6">
+            <v>1.75</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="H7">
+            <v>2</v>
+          </cell>
+          <cell r="I7">
+            <v>12</v>
+          </cell>
+          <cell r="J7">
+            <v>6</v>
+          </cell>
+          <cell r="K7">
+            <v>3</v>
+          </cell>
+          <cell r="L7">
+            <v>10</v>
+          </cell>
+          <cell r="M7">
+            <v>5</v>
+          </cell>
+          <cell r="N7">
+            <v>2.5</v>
+          </cell>
+          <cell r="O7">
+            <v>8</v>
+          </cell>
+          <cell r="P7">
+            <v>4</v>
+          </cell>
+          <cell r="Q7">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="H8">
+            <v>2.625</v>
+          </cell>
+          <cell r="I8">
+            <v>16</v>
+          </cell>
+          <cell r="J8">
+            <v>8</v>
+          </cell>
+          <cell r="K8">
+            <v>4</v>
+          </cell>
+          <cell r="L8">
+            <v>13</v>
+          </cell>
+          <cell r="M8">
+            <v>7</v>
+          </cell>
+          <cell r="N8">
+            <v>3</v>
+          </cell>
+          <cell r="O8">
+            <v>10</v>
+          </cell>
+          <cell r="P8">
+            <v>5</v>
+          </cell>
+          <cell r="Q8">
+            <v>2.5</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="H9">
+            <v>3.625</v>
+          </cell>
+          <cell r="I9">
+            <v>20</v>
+          </cell>
+          <cell r="J9">
+            <v>10</v>
+          </cell>
+          <cell r="K9">
+            <v>5</v>
+          </cell>
+          <cell r="L9">
+            <v>16</v>
+          </cell>
+          <cell r="M9">
+            <v>8</v>
+          </cell>
+          <cell r="N9">
+            <v>4</v>
+          </cell>
+          <cell r="O9">
+            <v>12</v>
+          </cell>
+          <cell r="P9">
+            <v>6</v>
+          </cell>
+          <cell r="Q9">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="H10">
+            <v>5.125</v>
+          </cell>
+          <cell r="I10">
+            <v>40</v>
+          </cell>
+          <cell r="J10">
+            <v>20</v>
+          </cell>
+          <cell r="K10">
+            <v>10</v>
+          </cell>
+          <cell r="L10">
+            <v>30</v>
+          </cell>
+          <cell r="M10">
+            <v>16</v>
+          </cell>
+          <cell r="N10">
+            <v>8</v>
+          </cell>
+          <cell r="O10">
+            <v>18</v>
+          </cell>
+          <cell r="P10">
+            <v>10</v>
+          </cell>
+          <cell r="Q10">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="H11">
+            <v>6.5</v>
+          </cell>
+          <cell r="I11">
+            <v>60</v>
+          </cell>
+          <cell r="J11">
+            <v>30</v>
+          </cell>
+          <cell r="K11">
+            <v>30</v>
+          </cell>
+          <cell r="L11">
+            <v>48</v>
+          </cell>
+          <cell r="M11">
+            <v>24</v>
+          </cell>
+          <cell r="N11">
+            <v>24</v>
+          </cell>
+          <cell r="O11">
+            <v>24</v>
+          </cell>
+          <cell r="P11">
+            <v>12</v>
+          </cell>
+          <cell r="Q11">
+            <v>12</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1175,6 +7451,513 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>5000</v>
+      </c>
+      <c r="B8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>10000</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>20000</v>
+      </c>
+      <c r="B10">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>30000</v>
+      </c>
+      <c r="B11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>50000</v>
+      </c>
+      <c r="B12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>100000</v>
+      </c>
+      <c r="B13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1.5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>0.7</v>
+      </c>
+      <c r="C18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19">
+        <v>0.5</v>
+      </c>
+      <c r="C19">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20">
+        <v>0.3</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2.5</v>
+      </c>
+      <c r="B26">
+        <v>0.8</v>
+      </c>
+      <c r="G26">
+        <f>0.33/2+0.67</f>
+        <v>0.83500000000000008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1.5</v>
+      </c>
+      <c r="B27">
+        <v>0.9</v>
+      </c>
+      <c r="I27">
+        <f>0.1/0.5</f>
+        <v>0.2</v>
+      </c>
+      <c r="J27">
+        <f>0.7/0.2</f>
+        <v>3.4999999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.83</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.6</v>
+      </c>
+      <c r="B29">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.45</v>
+      </c>
+      <c r="B30">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.35</v>
+      </c>
+      <c r="B31">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.25</v>
+      </c>
+      <c r="B32">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.2</v>
+      </c>
+      <c r="B33">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.15</v>
+      </c>
+      <c r="B34">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41">
+        <v>0.1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42">
+        <v>0.2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43">
+        <v>0.2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>165</v>
+      </c>
+      <c r="F43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>175</v>
+      </c>
+      <c r="F46" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>182</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>184</v>
+      </c>
+      <c r="F52" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" t="s">
+        <v>187</v>
+      </c>
+      <c r="G53" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F54" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>190</v>
+      </c>
+      <c r="B55" t="s">
+        <v>187</v>
+      </c>
+      <c r="G55" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
@@ -1264,7 +8047,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" s="4">
         <v>0.9</v>
@@ -1867,8 +8650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,7 +8661,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1889,7 +8672,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>26</v>
@@ -1906,7 +8689,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" s="4">
         <v>1.1000000000000001</v>
@@ -1923,7 +8706,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -1940,7 +8723,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -1957,7 +8740,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" s="4">
         <v>1.1000000000000001</v>
@@ -1974,7 +8757,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -1991,7 +8774,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" s="4">
         <v>1.1000000000000001</v>
@@ -2008,7 +8791,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B9" s="4">
         <v>1.1000000000000001</v>
@@ -2025,7 +8808,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -2042,7 +8825,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B11" s="4">
         <v>1.1000000000000001</v>
@@ -2059,7 +8842,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B12" s="4">
         <v>1.1000000000000001</v>
@@ -2076,7 +8859,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -2093,7 +8876,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B14" s="4">
         <v>1.1000000000000001</v>
@@ -2121,7 +8904,7 @@
   <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,7 +8936,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2167,7 +8950,7 @@
         <v>0.8</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4">
         <v>0.8</v>
@@ -2181,7 +8964,7 @@
         <v>0.6</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5">
         <v>0.6</v>
@@ -2190,4 +8973,1170 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R58"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="11"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="11"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="12"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="16">
+        <v>1</v>
+      </c>
+      <c r="G3" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGE(F3:G3)</f>
+        <v>1.05</v>
+      </c>
+      <c r="I3" s="17">
+        <v>4</v>
+      </c>
+      <c r="J3" s="18">
+        <v>2</v>
+      </c>
+      <c r="K3" s="19">
+        <v>1</v>
+      </c>
+      <c r="L3" s="17">
+        <v>4</v>
+      </c>
+      <c r="M3" s="18">
+        <v>2</v>
+      </c>
+      <c r="N3" s="19">
+        <v>1</v>
+      </c>
+      <c r="O3" s="17">
+        <v>4</v>
+      </c>
+      <c r="P3" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1.25</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H11" si="0">AVERAGE(F4:G4)</f>
+        <v>1.175</v>
+      </c>
+      <c r="I4" s="17">
+        <v>5</v>
+      </c>
+      <c r="J4" s="18">
+        <v>2.25</v>
+      </c>
+      <c r="K4" s="19">
+        <v>1.85</v>
+      </c>
+      <c r="L4" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="M4" s="18">
+        <v>2.25</v>
+      </c>
+      <c r="N4" s="19">
+        <v>1.85</v>
+      </c>
+      <c r="O4" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="P4" s="18">
+        <v>2.25</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16">
+        <f>G4</f>
+        <v>1.25</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1.45</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>1.35</v>
+      </c>
+      <c r="I5" s="17">
+        <v>6</v>
+      </c>
+      <c r="J5" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="K5" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="L5" s="17">
+        <v>5</v>
+      </c>
+      <c r="M5" s="18">
+        <v>2.8</v>
+      </c>
+      <c r="N5" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="O5" s="17">
+        <v>5</v>
+      </c>
+      <c r="P5" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" ref="F6:F11" si="1">G5</f>
+        <v>1.45</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1.75</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="I6" s="17">
+        <v>9</v>
+      </c>
+      <c r="J6" s="18">
+        <v>4</v>
+      </c>
+      <c r="K6" s="19">
+        <v>2</v>
+      </c>
+      <c r="L6" s="17">
+        <v>7.5</v>
+      </c>
+      <c r="M6" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="N6" s="19">
+        <v>2</v>
+      </c>
+      <c r="O6" s="17">
+        <v>6.5</v>
+      </c>
+      <c r="P6" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="16">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="G7" s="16">
+        <v>2.25</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I7" s="17">
+        <v>12</v>
+      </c>
+      <c r="J7" s="18">
+        <v>6</v>
+      </c>
+      <c r="K7" s="19">
+        <v>3</v>
+      </c>
+      <c r="L7" s="17">
+        <v>10</v>
+      </c>
+      <c r="M7" s="18">
+        <v>5</v>
+      </c>
+      <c r="N7" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="O7" s="17">
+        <v>8</v>
+      </c>
+      <c r="P7" s="18">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>4.5</v>
+      </c>
+      <c r="D8">
+        <v>4.5</v>
+      </c>
+      <c r="F8" s="16">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="G8" s="16">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>2.625</v>
+      </c>
+      <c r="I8" s="17">
+        <v>16</v>
+      </c>
+      <c r="J8" s="18">
+        <v>8</v>
+      </c>
+      <c r="K8" s="19">
+        <v>4</v>
+      </c>
+      <c r="L8" s="17">
+        <v>13</v>
+      </c>
+      <c r="M8" s="18">
+        <v>7</v>
+      </c>
+      <c r="N8" s="19">
+        <v>3</v>
+      </c>
+      <c r="O8" s="17">
+        <v>10</v>
+      </c>
+      <c r="P8" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9">
+        <v>2.25</v>
+      </c>
+      <c r="C9">
+        <v>2.25</v>
+      </c>
+      <c r="D9">
+        <v>2.25</v>
+      </c>
+      <c r="F9" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G9" s="16">
+        <v>4.25</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>3.625</v>
+      </c>
+      <c r="I9" s="17">
+        <v>20</v>
+      </c>
+      <c r="J9" s="18">
+        <v>10</v>
+      </c>
+      <c r="K9" s="19">
+        <v>5</v>
+      </c>
+      <c r="L9" s="17">
+        <v>16</v>
+      </c>
+      <c r="M9" s="18">
+        <v>8</v>
+      </c>
+      <c r="N9" s="19">
+        <v>4</v>
+      </c>
+      <c r="O9" s="17">
+        <v>12</v>
+      </c>
+      <c r="P9" s="18">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10">
+        <v>1.85</v>
+      </c>
+      <c r="C10">
+        <v>1.85</v>
+      </c>
+      <c r="D10">
+        <v>1.85</v>
+      </c>
+      <c r="F10" s="16">
+        <f t="shared" si="1"/>
+        <v>4.25</v>
+      </c>
+      <c r="G10" s="16">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>5.125</v>
+      </c>
+      <c r="I10" s="17">
+        <v>40</v>
+      </c>
+      <c r="J10" s="18">
+        <v>20</v>
+      </c>
+      <c r="K10" s="19">
+        <v>10</v>
+      </c>
+      <c r="L10" s="17">
+        <v>30</v>
+      </c>
+      <c r="M10" s="18">
+        <v>16</v>
+      </c>
+      <c r="N10" s="19">
+        <v>8</v>
+      </c>
+      <c r="O10" s="17">
+        <v>18</v>
+      </c>
+      <c r="P10" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G11" s="16">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="I11" s="17">
+        <v>60</v>
+      </c>
+      <c r="J11" s="18">
+        <v>30</v>
+      </c>
+      <c r="K11" s="19">
+        <v>30</v>
+      </c>
+      <c r="L11" s="17">
+        <v>48</v>
+      </c>
+      <c r="M11" s="18">
+        <v>24</v>
+      </c>
+      <c r="N11" s="19">
+        <v>24</v>
+      </c>
+      <c r="O11" s="17">
+        <v>24</v>
+      </c>
+      <c r="P11" s="18">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13">
+        <v>2.5</v>
+      </c>
+      <c r="C13">
+        <v>2.8</v>
+      </c>
+      <c r="D13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14">
+        <v>1.5</v>
+      </c>
+      <c r="C14">
+        <v>1.5</v>
+      </c>
+      <c r="D14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>7.5</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>3.5</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>2.5</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36">
+        <v>60</v>
+      </c>
+      <c r="C36">
+        <v>48</v>
+      </c>
+      <c r="D36">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H43" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H44">
+        <v>20</v>
+      </c>
+      <c r="I44">
+        <v>50</v>
+      </c>
+      <c r="J44">
+        <v>100</v>
+      </c>
+      <c r="K44">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45">
+        <v>0.4</v>
+      </c>
+      <c r="C45">
+        <v>0.2</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H45">
+        <v>0.9</v>
+      </c>
+      <c r="I45">
+        <v>0.85</v>
+      </c>
+      <c r="J45">
+        <v>0.8</v>
+      </c>
+      <c r="K45">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46">
+        <v>0.5</v>
+      </c>
+      <c r="C46">
+        <v>0.4</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="H46">
+        <v>0.85</v>
+      </c>
+      <c r="I46">
+        <v>0.8</v>
+      </c>
+      <c r="J46">
+        <v>0.7</v>
+      </c>
+      <c r="K46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47">
+        <v>0.6</v>
+      </c>
+      <c r="C47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48">
+        <v>0.6</v>
+      </c>
+      <c r="C48">
+        <v>0.6</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H48">
+        <v>10</v>
+      </c>
+      <c r="I48">
+        <v>20</v>
+      </c>
+      <c r="J48">
+        <v>50</v>
+      </c>
+      <c r="K48">
+        <v>100</v>
+      </c>
+      <c r="L48">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49">
+        <v>0.8</v>
+      </c>
+      <c r="C49">
+        <v>0.8</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49">
+        <v>0.9</v>
+      </c>
+      <c r="I49">
+        <v>0.8</v>
+      </c>
+      <c r="J49">
+        <v>0.7</v>
+      </c>
+      <c r="K49">
+        <v>0.6</v>
+      </c>
+      <c r="L49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51">
+        <v>0.7</v>
+      </c>
+      <c r="C51">
+        <v>0.7</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="J51" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52">
+        <v>0.9</v>
+      </c>
+      <c r="C52">
+        <v>0.9</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="J52" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53">
+        <v>1.05</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H53">
+        <v>0.8</v>
+      </c>
+      <c r="J53" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="K53">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54">
+        <v>0.95</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H54">
+        <v>0.6</v>
+      </c>
+      <c r="J54" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="K54">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55">
+        <v>0.3</v>
+      </c>
+      <c r="C55">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56">
+        <v>0.3</v>
+      </c>
+      <c r="C56">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57">
+        <v>0.4</v>
+      </c>
+      <c r="C57">
+        <v>0.3</v>
+      </c>
+      <c r="H57" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58">
+        <v>0.7</v>
+      </c>
+      <c r="C58">
+        <v>0.7</v>
+      </c>
+      <c r="H58">
+        <v>1.2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/_reference/factor_tables.xlsx
+++ b/_reference/factor_tables.xlsx
@@ -22,9 +22,10 @@
     <sheet name="Road factors" sheetId="7" r:id="rId8"/>
     <sheet name="Advance rates" sheetId="10" r:id="rId9"/>
     <sheet name="Casualty rates" sheetId="12" r:id="rId10"/>
+    <sheet name="Strsize" sheetId="13" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="218">
   <si>
     <t>Terrain</t>
   </si>
@@ -633,6 +634,99 @@
   </si>
   <si>
     <t>Same as personnel rate</t>
+  </si>
+  <si>
+    <t>Strength Size Factor for Casualties (TNDM)</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">≥ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100,000 Men</t>
+    </r>
+  </si>
+  <si>
+    <t>80,000 – 100,000 Men</t>
+  </si>
+  <si>
+    <t>75,000 – 80,000 Men</t>
+  </si>
+  <si>
+    <t>60,000 – 75,000 Men</t>
+  </si>
+  <si>
+    <t>45,000 – 60,000 Men</t>
+  </si>
+  <si>
+    <t>35,000 – 45,000 Men</t>
+  </si>
+  <si>
+    <t>25,000 – 35,000 Men</t>
+  </si>
+  <si>
+    <t>15,000 – 25,000 Men</t>
+  </si>
+  <si>
+    <t>12,500 – 15,000 Men</t>
+  </si>
+  <si>
+    <t>10,000 – 12,500 Men</t>
+  </si>
+  <si>
+    <t>8,000 – 10,000 Men</t>
+  </si>
+  <si>
+    <t>6,000 – 8,000 Men</t>
+  </si>
+  <si>
+    <t>4,000 – 6,000 Men</t>
+  </si>
+  <si>
+    <t>2,000 – 4,000 Men</t>
+  </si>
+  <si>
+    <t>1,000 – 2,000 Men</t>
+  </si>
+  <si>
+    <t>500 – 1,000 Men</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">≤ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500 Men</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -643,7 +737,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,6 +767,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -714,7 +823,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -734,18 +843,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -769,12 +866,42 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1115,11 +1242,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1830421968"/>
-        <c:axId val="1830425232"/>
+        <c:axId val="-654223136"/>
+        <c:axId val="-654222592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1830421968"/>
+        <c:axId val="-654223136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.5"/>
@@ -1167,7 +1294,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1234,13 +1360,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1830425232"/>
+        <c:crossAx val="-654222592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1830425232"/>
+        <c:axId val="-654222592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -1299,7 +1425,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1830421968"/>
+        <c:crossAx val="-654223136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1313,7 +1439,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1708,11 +1833,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1830422512"/>
-        <c:axId val="1786742144"/>
+        <c:axId val="-654217696"/>
+        <c:axId val="-654220416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1830422512"/>
+        <c:axId val="-654217696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.5"/>
@@ -1760,7 +1885,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1827,13 +1951,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1786742144"/>
+        <c:crossAx val="-654220416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1786742144"/>
+        <c:axId val="-654220416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -1892,7 +2016,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1830422512"/>
+        <c:crossAx val="-654217696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1906,7 +2030,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2301,11 +2424,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1834010416"/>
-        <c:axId val="1834007152"/>
+        <c:axId val="-654246528"/>
+        <c:axId val="-654243808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1834010416"/>
+        <c:axId val="-654246528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.5"/>
@@ -2353,7 +2476,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2420,13 +2542,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1834007152"/>
+        <c:crossAx val="-654243808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1834007152"/>
+        <c:axId val="-654243808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -2485,7 +2607,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1834010416"/>
+        <c:crossAx val="-654246528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2499,7 +2621,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2741,11 +2862,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1419168032"/>
-        <c:axId val="1822474928"/>
+        <c:axId val="-654242720"/>
+        <c:axId val="-654241632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1419168032"/>
+        <c:axId val="-654242720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2802,12 +2923,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1822474928"/>
+        <c:crossAx val="-654241632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1822474928"/>
+        <c:axId val="-654241632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2864,7 +2985,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1419168032"/>
+        <c:crossAx val="-654242720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3060,11 +3181,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1822477104"/>
-        <c:axId val="1822472752"/>
+        <c:axId val="-832651952"/>
+        <c:axId val="-832675888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1822477104"/>
+        <c:axId val="-832651952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3121,12 +3242,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1822472752"/>
+        <c:crossAx val="-832675888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1822472752"/>
+        <c:axId val="-832675888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3183,7 +3304,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1822477104"/>
+        <c:crossAx val="-832651952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6197,11 +6318,17 @@
       <sheetName val="lookups"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>WEAPON</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
         <row r="6">
           <cell r="B6" t="str">
@@ -6669,11 +6796,28 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8">
+        <row r="2">
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="StrengthSizeCasualtiesTNDM" displayName="StrengthSizeCasualtiesTNDM" ref="L6:M23" totalsRowShown="0">
+  <autoFilter ref="L6:M23"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="List" dataDxfId="1"/>
+    <tableColumn id="2" name="N" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6953,15 +7097,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -7453,20 +7597,27 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="L32" sqref="L31:L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -7474,7 +7625,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -7482,76 +7633,136 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="L5" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>148</v>
       </c>
       <c r="B6" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="L6" t="s">
+        <v>200</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
         <v>0</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="L7" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="M7" s="26">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
         <v>5000</v>
       </c>
       <c r="B8">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="L8" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="M8" s="26">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
         <v>10000</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
+      <c r="L9" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="M9" s="26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
         <v>20000</v>
       </c>
       <c r="B10">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="L10" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="M10" s="26">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
         <v>30000</v>
       </c>
       <c r="B11">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="L11" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="M11" s="26">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
         <v>50000</v>
       </c>
       <c r="B12">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+      <c r="L12" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="M12" s="26">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
         <v>100000</v>
       </c>
       <c r="B13">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="L13" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="M13" s="26">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L14" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="M14" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -7561,11 +7772,23 @@
       <c r="C15" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="20" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="L15" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="M15" s="26">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -7578,8 +7801,14 @@
       <c r="D16" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L16" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="M16" s="26">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -7589,8 +7818,14 @@
       <c r="C17">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L17" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="M17" s="26">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -7600,8 +7835,14 @@
       <c r="C18">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L18" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="M18" s="26">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -7611,32 +7852,64 @@
       <c r="C19">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L19" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="M19" s="26">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>154</v>
       </c>
       <c r="B20">
         <v>0.3</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="16" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L20" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="M20" s="26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L21" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="M21" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L22" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="M22" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>157</v>
       </c>
       <c r="B23" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L23" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="M23" s="26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -7644,7 +7917,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2.5</v>
       </c>
@@ -7656,23 +7929,15 @@
         <v>0.83500000000000008</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1.5</v>
       </c>
       <c r="B27">
         <v>0.9</v>
       </c>
-      <c r="I27">
-        <f>0.1/0.5</f>
-        <v>0.2</v>
-      </c>
-      <c r="J27">
-        <f>0.7/0.2</f>
-        <v>3.4999999999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.83</v>
       </c>
@@ -7680,7 +7945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.6</v>
       </c>
@@ -7688,7 +7953,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.45</v>
       </c>
@@ -7696,7 +7961,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.35</v>
       </c>
@@ -7704,7 +7969,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.25</v>
       </c>
@@ -7803,7 +8068,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="19" t="s">
         <v>171</v>
       </c>
       <c r="G44" t="s">
@@ -7953,8 +8218,32 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D15:J15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7972,15 +8261,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -8660,15 +8949,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -8998,21 +9287,21 @@
       <c r="A1" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="10" t="s">
+      <c r="J1" s="22"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="10" t="s">
+      <c r="M1" s="22"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="12"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -9035,31 +9324,31 @@
       <c r="H2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="11" t="s">
         <v>103</v>
       </c>
       <c r="R2" s="1"/>
@@ -9068,46 +9357,46 @@
       <c r="A3" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="12">
         <v>1</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="12">
         <v>1.1000000000000001</v>
       </c>
       <c r="H3">
         <f>AVERAGE(F3:G3)</f>
         <v>1.05</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="13">
         <v>4</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="14">
         <v>2</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="15">
         <v>1</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="13">
         <v>4</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="14">
         <v>2</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="15">
         <v>1</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="13">
         <v>4</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="14">
         <v>2</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="Q3" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B4">
@@ -9119,46 +9408,46 @@
       <c r="D4">
         <v>4</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="12">
         <v>1.25</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H11" si="0">AVERAGE(F4:G4)</f>
         <v>1.175</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="13">
         <v>5</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="14">
         <v>2.25</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="15">
         <v>1.85</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="13">
         <v>4.5</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="14">
         <v>2.25</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="15">
         <v>1.85</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="13">
         <v>4.5</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="14">
         <v>2.25</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="15">
         <v>1.85</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B5">
@@ -9170,47 +9459,47 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="12">
         <f>G4</f>
         <v>1.25</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="12">
         <v>1.45</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
         <v>1.35</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="13">
         <v>6</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="14">
         <v>2.5</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="15">
         <v>1.5</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="13">
         <v>5</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="14">
         <v>2.8</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="15">
         <v>1.5</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="13">
         <v>5</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="14">
         <v>2.5</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="15">
         <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="16" t="s">
         <v>107</v>
       </c>
       <c r="B6">
@@ -9222,42 +9511,42 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="12">
         <f t="shared" ref="F6:F11" si="1">G5</f>
         <v>1.45</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="12">
         <v>1.75</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="13">
         <v>9</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="14">
         <v>4</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="15">
         <v>2</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="13">
         <v>7.5</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="14">
         <v>3.5</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="15">
         <v>2</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="13">
         <v>6.5</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="14">
         <v>3</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="15">
         <v>1.75</v>
       </c>
     </row>
@@ -9265,47 +9554,47 @@
       <c r="A7" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="12">
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="12">
         <v>2.25</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="13">
         <v>12</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="14">
         <v>6</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="15">
         <v>3</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="13">
         <v>10</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="14">
         <v>5</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="15">
         <v>2.5</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="13">
         <v>8</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="14">
         <v>4</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q7" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B8">
@@ -9317,47 +9606,47 @@
       <c r="D8">
         <v>4.5</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="12">
         <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="12">
         <v>3</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
         <v>2.625</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="13">
         <v>16</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="14">
         <v>8</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="15">
         <v>4</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="13">
         <v>13</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="14">
         <v>7</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="15">
         <v>3</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="13">
         <v>10</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8" s="14">
         <v>5</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q8" s="15">
         <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B9">
@@ -9369,47 +9658,47 @@
       <c r="D9">
         <v>2.25</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="12">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="12">
         <v>4.25</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
         <v>3.625</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="13">
         <v>20</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="14">
         <v>10</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="15">
         <v>5</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="13">
         <v>16</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="14">
         <v>8</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N9" s="15">
         <v>4</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="13">
         <v>12</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="14">
         <v>6</v>
       </c>
-      <c r="Q9" s="19">
+      <c r="Q9" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="16" t="s">
         <v>107</v>
       </c>
       <c r="B10">
@@ -9421,90 +9710,90 @@
       <c r="D10">
         <v>1.85</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="12">
         <f t="shared" si="1"/>
         <v>4.25</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="12">
         <v>6</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
         <v>5.125</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="13">
         <v>40</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="14">
         <v>20</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="15">
         <v>10</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="13">
         <v>30</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="14">
         <v>16</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10" s="15">
         <v>8</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="13">
         <v>18</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10" s="14">
         <v>10</v>
       </c>
-      <c r="Q10" s="19">
+      <c r="Q10" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="12">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="12">
         <v>7</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="13">
         <v>60</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="14">
         <v>30</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="15">
         <v>30</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="13">
         <v>48</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="14">
         <v>24</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N11" s="15">
         <v>24</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="13">
         <v>24</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P11" s="14">
         <v>12</v>
       </c>
-      <c r="Q11" s="19">
+      <c r="Q11" s="15">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B12">
@@ -9518,7 +9807,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B13">
@@ -9532,7 +9821,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="16" t="s">
         <v>107</v>
       </c>
       <c r="B14">
@@ -9546,12 +9835,12 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="16" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B16">
@@ -9565,7 +9854,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B17">
@@ -9579,7 +9868,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="16" t="s">
         <v>107</v>
       </c>
       <c r="B18">
@@ -9593,12 +9882,12 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B20">
@@ -9612,7 +9901,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B21">
@@ -9626,7 +9915,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="16" t="s">
         <v>107</v>
       </c>
       <c r="B22">
@@ -9640,12 +9929,12 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B24">
@@ -9659,7 +9948,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B25">
@@ -9673,7 +9962,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="16" t="s">
         <v>107</v>
       </c>
       <c r="B26">
@@ -9687,12 +9976,12 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B28">
@@ -9706,7 +9995,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B29">
@@ -9720,7 +10009,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="16" t="s">
         <v>107</v>
       </c>
       <c r="B30">
@@ -9734,12 +10023,12 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B32">
@@ -9753,7 +10042,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B33">
@@ -9767,7 +10056,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="16" t="s">
         <v>107</v>
       </c>
       <c r="B34">
@@ -9781,12 +10070,12 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B36">
@@ -9800,7 +10089,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B37">
@@ -9814,7 +10103,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="16" t="s">
         <v>107</v>
       </c>
       <c r="B38">
@@ -9842,7 +10131,7 @@
       <c r="C44" t="s">
         <v>97</v>
       </c>
-      <c r="G44" s="20" t="s">
+      <c r="G44" s="16" t="s">
         <v>118</v>
       </c>
       <c r="H44">
@@ -9859,7 +10148,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="16" t="s">
         <v>119</v>
       </c>
       <c r="B45">
@@ -9868,7 +10157,7 @@
       <c r="C45">
         <v>0.2</v>
       </c>
-      <c r="G45" s="20" t="s">
+      <c r="G45" s="16" t="s">
         <v>120</v>
       </c>
       <c r="H45">
@@ -9885,7 +10174,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="16" t="s">
         <v>121</v>
       </c>
       <c r="B46">
@@ -9894,7 +10183,7 @@
       <c r="C46">
         <v>0.4</v>
       </c>
-      <c r="G46" s="20" t="s">
+      <c r="G46" s="16" t="s">
         <v>122</v>
       </c>
       <c r="H46">
@@ -9911,7 +10200,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="16" t="s">
         <v>123</v>
       </c>
       <c r="B47">
@@ -9922,7 +10211,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="16" t="s">
         <v>124</v>
       </c>
       <c r="B48">
@@ -9931,7 +10220,7 @@
       <c r="C48">
         <v>0.6</v>
       </c>
-      <c r="G48" s="20" t="s">
+      <c r="G48" s="16" t="s">
         <v>125</v>
       </c>
       <c r="H48">
@@ -9951,7 +10240,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="16" t="s">
         <v>126</v>
       </c>
       <c r="B49">
@@ -9960,7 +10249,7 @@
       <c r="C49">
         <v>0.8</v>
       </c>
-      <c r="G49" s="20" t="s">
+      <c r="G49" s="16" t="s">
         <v>49</v>
       </c>
       <c r="H49">
@@ -9980,7 +10269,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="16" t="s">
         <v>127</v>
       </c>
       <c r="B50">
@@ -9991,7 +10280,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="16" t="s">
         <v>128</v>
       </c>
       <c r="B51">
@@ -10000,15 +10289,15 @@
       <c r="C51">
         <v>0.7</v>
       </c>
-      <c r="G51" s="21" t="s">
+      <c r="G51" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="J51" s="21" t="s">
+      <c r="J51" s="17" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="16" t="s">
         <v>131</v>
       </c>
       <c r="B52">
@@ -10017,13 +10306,13 @@
       <c r="C52">
         <v>0.9</v>
       </c>
-      <c r="G52" s="20" t="s">
+      <c r="G52" s="16" t="s">
         <v>51</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
-      <c r="J52" s="20" t="s">
+      <c r="J52" s="16" t="s">
         <v>132</v>
       </c>
       <c r="K52">
@@ -10031,7 +10320,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="16" t="s">
         <v>133</v>
       </c>
       <c r="B53">
@@ -10040,13 +10329,13 @@
       <c r="C53">
         <v>1</v>
       </c>
-      <c r="G53" s="20" t="s">
+      <c r="G53" s="16" t="s">
         <v>74</v>
       </c>
       <c r="H53">
         <v>0.8</v>
       </c>
-      <c r="J53" s="20" t="s">
+      <c r="J53" s="16" t="s">
         <v>134</v>
       </c>
       <c r="K53">
@@ -10054,7 +10343,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="16" t="s">
         <v>135</v>
       </c>
       <c r="B54">
@@ -10063,13 +10352,13 @@
       <c r="C54">
         <v>1</v>
       </c>
-      <c r="G54" s="20" t="s">
+      <c r="G54" s="16" t="s">
         <v>53</v>
       </c>
       <c r="H54">
         <v>0.6</v>
       </c>
-      <c r="J54" s="20" t="s">
+      <c r="J54" s="16" t="s">
         <v>136</v>
       </c>
       <c r="K54">
@@ -10077,7 +10366,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="16" t="s">
         <v>137</v>
       </c>
       <c r="B55">
@@ -10088,7 +10377,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B56">
@@ -10099,7 +10388,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="16" t="s">
         <v>139</v>
       </c>
       <c r="B57">
@@ -10113,7 +10402,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="16" t="s">
         <v>141</v>
       </c>
       <c r="B58">
